--- a/biology/Botanique/Cephalaria_leucantha/Cephalaria_leucantha.xlsx
+++ b/biology/Botanique/Cephalaria_leucantha/Cephalaria_leucantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalaria leucantha, la céphalaire blanche, est une espèce de plante méditerranéenne de la famille des Dipsacacées selon la classification classique de Cronquist (1981)[1], de la famille des Caprifoliacées selon la classification phylogénétique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalaria leucantha, la céphalaire blanche, est une espèce de plante méditerranéenne de la famille des Dipsacacées selon la classification classique de Cronquist (1981), de la famille des Caprifoliacées selon la classification phylogénétique.
 </t>
         </is>
       </c>
